--- a/Inputs/Deskcount/2024/January Deskcount.xlsx
+++ b/Inputs/Deskcount/2024/January Deskcount.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greystar365.sharepoint.com/sites/CorporateOfficeStrategy/Shared Documents/General/Occupancy Data/Dashboard/Inputs/Deskcount/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC42D193-6761-4139-AC6A-E4A04B898257}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F91E20-C25A-4F1B-9A77-1F5433CACC90}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deskcount" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Deskcount!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>OfficeLocation</t>
   </si>
@@ -370,6 +373,9 @@
   </si>
   <si>
     <t>RSF</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -823,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1186,7 +1192,7 @@
         <v>45292</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1226,7 +1232,7 @@
         <v>45292</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1386,7 +1392,7 @@
         <v>45292</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1646,7 +1652,7 @@
         <v>45292</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1717,7 +1723,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="7">
         <v>3509</v>
@@ -1806,7 +1812,7 @@
         <v>45292</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1890,6 +1896,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1904,6 +1911,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="247b3ed0-617a-4d1d-b8bd-a66944492619" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="334de605-b0fc-4c39-b9f0-ad19cf79a3ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010012DDEC86E47B0D488EDE8526C5FE0957" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bf1f00915b321be1014b44a0a0242ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="334de605-b0fc-4c39-b9f0-ad19cf79a3ca" xmlns:ns3="247b3ed0-617a-4d1d-b8bd-a66944492619" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a82e13236a0edc0785210399e43caf" ns2:_="" ns3:_="">
     <xsd:import namespace="334de605-b0fc-4c39-b9f0-ad19cf79a3ca"/>
@@ -2164,17 +2182,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="247b3ed0-617a-4d1d-b8bd-a66944492619" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="334de605-b0fc-4c39-b9f0-ad19cf79a3ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74210780-D2ED-4E8B-8299-24F1A344B303}">
   <ds:schemaRefs>
@@ -2184,10 +2191,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2577CD5-A70B-4BF3-A607-9300A29B71A0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20919586-F825-4328-A511-702B7F6D9530}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2196,4 +2199,23 @@
     <ds:schemaRef ds:uri="334de605-b0fc-4c39-b9f0-ad19cf79a3ca"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2577CD5-A70B-4BF3-A607-9300A29B71A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="334de605-b0fc-4c39-b9f0-ad19cf79a3ca"/>
+    <ds:schemaRef ds:uri="247b3ed0-617a-4d1d-b8bd-a66944492619"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>